--- a/Topologie/Données câblage.xlsx
+++ b/Topologie/Données câblage.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344b62aa2147e5f/Documents/A1/PROJET/Projet 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malor\Documents\GitHub\Carnofluxe\Topologie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +147,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -313,13 +326,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -331,46 +393,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,15 +414,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Sortie" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BU45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF8" workbookViewId="0">
-      <selection activeCell="BQ12" sqref="BQ12:BQ13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,172 +753,172 @@
   <sheetData>
     <row r="1" spans="3:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="L2" s="2" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="L2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-      <c r="U2" s="2" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="U2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="4"/>
-      <c r="AD2" s="2" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="15"/>
+      <c r="AD2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="4"/>
-      <c r="AM2" s="2" t="s">
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="15"/>
+      <c r="AM2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="4"/>
-      <c r="AV2" s="2" t="s">
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="15"/>
+      <c r="AV2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="4"/>
-      <c r="BF2" s="2" t="s">
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="15"/>
+      <c r="BF2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="4"/>
-      <c r="BQ2" s="2" t="s">
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="15"/>
+      <c r="BQ2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="4"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="15"/>
     </row>
     <row r="3" spans="3:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="L4" s="8" t="s">
+      <c r="G4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="L4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="8" t="s">
+      <c r="M4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="U4" s="8" t="s">
+      <c r="P4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="U4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="8" t="s">
+      <c r="V4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="4"/>
-      <c r="AD4" s="8" t="s">
+      <c r="Y4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="15"/>
+      <c r="AD4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="8" t="s">
+      <c r="AE4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="4"/>
-      <c r="AM4" s="8" t="s">
+      <c r="AH4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="15"/>
+      <c r="AM4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="8" t="s">
+      <c r="AN4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR4" s="4"/>
-      <c r="AV4" s="8" t="s">
+      <c r="AQ4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="15"/>
+      <c r="AV4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="8" t="s">
+      <c r="AW4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AZ4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA4" s="4"/>
-      <c r="BI4" s="2" t="s">
+      <c r="AZ4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="15"/>
+      <c r="BI4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BJ4" s="4"/>
-      <c r="BO4" s="2" t="s">
+      <c r="BJ4" s="15"/>
+      <c r="BO4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="2" t="s">
+      <c r="BP4" s="14"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="2" t="s">
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="BU4" s="4"/>
+      <c r="BU4" s="15"/>
     </row>
     <row r="5" spans="3:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
@@ -972,24 +1005,24 @@
         <v>12</v>
       </c>
       <c r="BA5" s="5"/>
-      <c r="BF5" s="2" t="s">
+      <c r="BF5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="15" t="s">
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BJ5" s="12"/>
-      <c r="BM5" s="2" t="s">
+      <c r="BJ5" s="17"/>
+      <c r="BM5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="7" t="s">
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
       <c r="BR5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1084,12 +1117,12 @@
         <v>12</v>
       </c>
       <c r="BA6" s="5"/>
-      <c r="BF6" s="2" t="s">
+      <c r="BF6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="6" t="s">
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="BJ6" s="5"/>
@@ -1179,12 +1212,12 @@
         <v>12</v>
       </c>
       <c r="BA7" s="5"/>
-      <c r="BF7" s="2" t="s">
+      <c r="BF7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="6" t="s">
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="18" t="s">
         <v>24</v>
       </c>
       <c r="BJ7" s="5"/>
@@ -1446,18 +1479,18 @@
         <v>12</v>
       </c>
       <c r="BA10" s="5"/>
-      <c r="BH10" s="15" t="s">
+      <c r="BH10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BI10" s="23"/>
-      <c r="BJ10" s="17" t="s">
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="BO10" s="15" t="s">
+      <c r="BO10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BP10" s="23"/>
-      <c r="BQ10" s="17" t="s">
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1546,12 +1579,12 @@
         <v>12</v>
       </c>
       <c r="BA11" s="5"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="18"/>
-      <c r="BO11" s="9"/>
-      <c r="BP11" s="10"/>
-      <c r="BQ11" s="18"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="11"/>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="11"/>
     </row>
     <row r="12" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
@@ -1638,18 +1671,18 @@
         <v>12</v>
       </c>
       <c r="BA12" s="5"/>
-      <c r="BH12" s="15" t="s">
+      <c r="BH12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BI12" s="23"/>
-      <c r="BJ12" s="24">
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="12">
         <v>200</v>
       </c>
-      <c r="BO12" s="15" t="s">
+      <c r="BO12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BP12" s="23"/>
-      <c r="BQ12" s="24">
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="12">
         <v>250</v>
       </c>
     </row>
@@ -1738,12 +1771,12 @@
         <v>12</v>
       </c>
       <c r="BA13" s="5"/>
-      <c r="BH13" s="9"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="18"/>
-      <c r="BO13" s="9"/>
-      <c r="BP13" s="10"/>
-      <c r="BQ13" s="18"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="11"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="11"/>
     </row>
     <row r="14" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
@@ -2418,182 +2451,182 @@
       <c r="H27" s="5"/>
     </row>
     <row r="29" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="8">
+      <c r="D30" s="14"/>
+      <c r="E30" s="2">
         <f>D5*F5+D6*F6+D7*F7+D8*F8+D9*F9+D10*F10+D11*F11+D12*F12+D13*F13+D14*F14+D15*F15+D16*F16+D17*F17+D18*F18+D19*F19+D20*F20+D21*F21+D22*F22+D23*F23+D24*F24+D25*F25+D26*F26+D27*F27+G5+G6+G7+G8+G9+G10+G11+G13+G12+G14+G15+G17+G16+G18+G19+G20+G21+G22+G23+G24+G25+G26+G27</f>
         <v>2809</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="8">
+      <c r="M30" s="14"/>
+      <c r="N30" s="2">
         <f>M5*O5+M6*O6+M7*O7+M8*O8+M9*O9+M10*O10+M11*O11+M12*O12+M13*O13+M14*O14+M15*O15+M16*O16+M17*O17+M18*O18+M19*O19+M20*O20+M21*O21+M22*O22+M23*O23+M24*O24+M25*O25+M26*O26+M27*O27+P5+P6+P7+P8+P9+P10+P11+P13+P12+P14+P15+P17+P16+P18+P19+P20+P21+P22+P23+P24+P25+P26+P27</f>
         <v>1828</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V30" s="4"/>
-      <c r="W30" s="8">
+      <c r="V30" s="15"/>
+      <c r="W30" s="2">
         <f>V5*X5+V6*X6+V7*X7+V8*X8+V9*X9+V10*X10+V11*X11+V12*X12+V13*X13+V14*X14+V15*X15+V16*X16+V17*X17+V18*X18+V19*X19+Y5+Y6+Y8+Y7+Y9+Y10+Y11+Y12+Y13+Y14+Y15+Y16+Y17+Y18+Y19</f>
         <v>1192</v>
       </c>
-      <c r="AD30" s="2" t="s">
+      <c r="AD30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="8">
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="2">
         <f>AE5*AG5+AE6*AG6+AE7*AG7+AE8*AG8+AE9*AG9+AE10*AG10+AE11*AG11+AE12*AG12+AE13*AG13+AE14*AG14+AE15*AG15+AE16*AG16+AE17*AG17+AE18*AG18+AE19*AG19+AH5+AH6+AH8+AH7+AH9+AH10+AH11+AH12+AH13+AH14+AH15+AH16+AH17+AH18+AH19</f>
         <v>1260</v>
       </c>
-      <c r="AM30" s="2" t="s">
+      <c r="AM30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="8">
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="2">
         <f>AN5*AP5+AN6*AP6+AN7*AP7+AN8*AP8+AN9*AP9+AN10*AP10+AN11*AP11+AN12*AP12+AN13*AP13+AN14*AP14+AN15*AP15+AN16*AP16+AN17*AP17+AN18*AP18+AN19*AP19+AQ5+AQ6+AQ8+AQ7+AQ9+AQ10+AQ11+AQ12+AQ13+AQ14+AQ15+AQ16+AQ17+AQ18+AQ19</f>
         <v>1160</v>
       </c>
-      <c r="AV30" s="2" t="s">
+      <c r="AV30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="8">
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="2">
         <f>AW5*AY5+AW6*AY6+AW7*AY7+AW8*AY8+AW9*AY9+AW10*AY10+AW11*AY11+AW12*AY12+AW13*AY13+AW14*AY14+AW15*AY15+AW16*AY16+AW17*AY17+AW18*AY18+AW19*AY19+AZ5+AZ6+AZ8+AZ7+AZ9+AZ10+AZ11+AZ12+AZ13+AZ14+AZ15+AZ16+AZ17+AZ18+AZ19</f>
         <v>720</v>
       </c>
     </row>
     <row r="31" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="14">
+      <c r="D31" s="15"/>
+      <c r="E31" s="4">
         <f>E30*1.2</f>
         <v>3370.7999999999997</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="14">
+      <c r="M31" s="15"/>
+      <c r="N31" s="4">
         <f>N30*1.2</f>
         <v>2193.6</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="V31" s="4"/>
-      <c r="W31" s="14">
+      <c r="V31" s="15"/>
+      <c r="W31" s="4">
         <f>W30*1.2</f>
         <v>1430.3999999999999</v>
       </c>
-      <c r="AD31" s="13" t="s">
+      <c r="AD31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="14">
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="4">
         <f>AF30*1.2</f>
         <v>1512</v>
       </c>
-      <c r="AM31" s="13" t="s">
+      <c r="AM31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="14">
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="4">
         <f>AO30*1.2</f>
         <v>1392</v>
       </c>
-      <c r="AV31" s="13" t="s">
+      <c r="AV31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="14">
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="4">
         <f>AX30*1.2</f>
         <v>864</v>
       </c>
     </row>
     <row r="32" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8">
+      <c r="D32" s="14"/>
+      <c r="E32" s="2">
         <f>E31</f>
         <v>3370.7999999999997</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="8">
+      <c r="M32" s="14"/>
+      <c r="N32" s="2">
         <f>N31</f>
         <v>2193.6</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V32" s="3"/>
-      <c r="W32" s="8">
+      <c r="V32" s="14"/>
+      <c r="W32" s="2">
         <f>W31</f>
         <v>1430.3999999999999</v>
       </c>
-      <c r="AD32" s="2" t="s">
+      <c r="AD32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="8">
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="2">
         <f>AF31</f>
         <v>1512</v>
       </c>
-      <c r="AM32" s="2" t="s">
+      <c r="AM32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="8">
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="2">
         <f>AO31</f>
         <v>1392</v>
       </c>
-      <c r="AV32" s="2" t="s">
+      <c r="AV32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="8">
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="2">
         <f>AX31</f>
         <v>864</v>
       </c>
     </row>
     <row r="36" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="17">
+      <c r="O37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="10">
         <f>E31+N31+W31+AF31+AO31+AX31</f>
         <v>10762.8</v>
       </c>
     </row>
     <row r="38" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O38" s="9"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="18"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O39" s="19" t="s">
         <v>13</v>
       </c>
       <c r="P39" s="20"/>
-      <c r="Q39" s="17">
+      <c r="Q39" s="10">
         <f>Q37</f>
         <v>10762.8</v>
       </c>
@@ -2601,214 +2634,112 @@
     <row r="40" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O40" s="21"/>
       <c r="P40" s="22"/>
-      <c r="Q40" s="18"/>
+      <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="P42" s="15" t="s">
+      <c r="P42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="17">
+      <c r="Q42" s="7"/>
+      <c r="R42" s="10">
         <f>Q37+Q39</f>
         <v>21525.599999999999</v>
       </c>
     </row>
     <row r="43" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P43" s="9"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="18"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="11"/>
     </row>
     <row r="44" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="17">
+      <c r="Q44" s="7"/>
+      <c r="R44" s="25">
         <f>R42*2.05</f>
         <v>44127.479999999996</v>
       </c>
     </row>
     <row r="45" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P45" s="9"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="18"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="268">
-    <mergeCell ref="BR5:BS5"/>
-    <mergeCell ref="BT5:BU5"/>
-    <mergeCell ref="BO10:BP11"/>
-    <mergeCell ref="BQ10:BQ11"/>
-    <mergeCell ref="BO12:BP13"/>
-    <mergeCell ref="BQ12:BQ13"/>
-    <mergeCell ref="BH10:BI11"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BH12:BI13"/>
-    <mergeCell ref="BJ12:BJ13"/>
-    <mergeCell ref="BQ2:BT2"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BQ5"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="P42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AW17:AX17"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="AW18:AX18"/>
-    <mergeCell ref="AZ18:BA18"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AW14:AX14"/>
-    <mergeCell ref="AZ14:BA14"/>
-    <mergeCell ref="AW15:AX15"/>
-    <mergeCell ref="AZ15:BA15"/>
-    <mergeCell ref="AW16:AX16"/>
-    <mergeCell ref="AZ16:BA16"/>
-    <mergeCell ref="AW11:AX11"/>
-    <mergeCell ref="AZ11:BA11"/>
-    <mergeCell ref="AW12:AX12"/>
-    <mergeCell ref="AZ12:BA12"/>
-    <mergeCell ref="AW13:AX13"/>
-    <mergeCell ref="AZ13:BA13"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AZ10:BA10"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="AV2:BA2"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AQ17:AR17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AQ18:AR18"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="U2:Z2"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="Y4:Z4"/>
@@ -2833,77 +2764,179 @@
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AV2:BA2"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AW11:AX11"/>
+    <mergeCell ref="AZ11:BA11"/>
+    <mergeCell ref="AW12:AX12"/>
+    <mergeCell ref="AZ12:BA12"/>
+    <mergeCell ref="AW13:AX13"/>
+    <mergeCell ref="AZ13:BA13"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AZ10:BA10"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="AW18:AX18"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AW14:AX14"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="AW15:AX15"/>
+    <mergeCell ref="AZ15:BA15"/>
+    <mergeCell ref="AW16:AX16"/>
+    <mergeCell ref="AZ16:BA16"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AQ17:AR17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AQ18:AR18"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="BQ2:BT2"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="BR4:BS4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BQ5"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="P42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="AW17:AX17"/>
+    <mergeCell ref="BR5:BS5"/>
+    <mergeCell ref="BT5:BU5"/>
+    <mergeCell ref="BO10:BP11"/>
+    <mergeCell ref="BQ10:BQ11"/>
+    <mergeCell ref="BO12:BP13"/>
+    <mergeCell ref="BQ12:BQ13"/>
+    <mergeCell ref="BH10:BI11"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BH12:BI13"/>
+    <mergeCell ref="BJ12:BJ13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
